--- a/sorensenLab/relatedToDlg2/design20210517_dlg2EnhancerCrisprOffOn/oligoDesignDlg2CrisprOnOff.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210517_dlg2EnhancerCrisprOffOn/oligoDesignDlg2CrisprOnOff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>nebTm</t>
   </si>
@@ -853,6 +853,322 @@
       </rPr>
       <t>C</t>
     </r>
+  </si>
+  <si>
+    <t>negSgrna1Fwd</t>
+  </si>
+  <si>
+    <t>negSgrna1Rev</t>
+  </si>
+  <si>
+    <t>negSgrna2Fwd</t>
+  </si>
+  <si>
+    <t>negSgrna2Rev</t>
+  </si>
+  <si>
+    <t>negSgrna3Fwd</t>
+  </si>
+  <si>
+    <t>negSgrna3Rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACGGAGGCTAAGCGTCGCAA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CGCTTCCGCGGCCCGTTCAA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATCGTTTCCGCTTAACGGCG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTGCGACGCTTAGCCTCCGT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTGAACGGGCCGCGGAAGCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CGCCGTTAAGCGGAAACGAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACTAGAAGCTTACTCATCAG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTGATGAGTAAGCTTCTAGT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>fli1CdegronSgrna1Fwd</t>
+  </si>
+  <si>
+    <t>fli1CdegronSgrna1Rev</t>
+  </si>
+  <si>
+    <t>dlg2NdegronSgrna1Fwd</t>
+  </si>
+  <si>
+    <t>dlg2NdegronSgrna1Rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCGCAACCATGAGCAGCG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CGCTGCTCATGGTTGCGGTG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>ybx1NdegronSgrna1Fwd</t>
+  </si>
+  <si>
+    <t>ybx1NdegronSgrna1Rev</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C38" si="0">LEN(B3)</f>
+        <f t="shared" ref="C3:C50" si="0">LEN(B3)</f>
         <v>20</v>
       </c>
       <c r="G3" t="s">
@@ -1698,6 +2014,150 @@
         <v>80</v>
       </c>
       <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>

--- a/sorensenLab/relatedToDlg2/design20210517_dlg2EnhancerCrisprOffOn/oligoDesignDlg2CrisprOnOff.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210517_dlg2EnhancerCrisprOffOn/oligoDesignDlg2CrisprOnOff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>nebTm</t>
   </si>
@@ -1169,6 +1169,142 @@
   </si>
   <si>
     <t>ybx1NdegronSgrna1Rev</t>
+  </si>
+  <si>
+    <t>peak3190Sgrna4</t>
+  </si>
+  <si>
+    <t>CAAGGCTACATCTGAAAGAA</t>
+  </si>
+  <si>
+    <t>peak3190Sgrna4Fwd</t>
+  </si>
+  <si>
+    <t>peak3190Sgrna4Rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAAGGCTACATCTGAAAGAA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTCTTTCAGATGTAGCCTTG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>AAATACACAAGTAATTAGCA</t>
+  </si>
+  <si>
+    <t>peak3191Sgrna4</t>
+  </si>
+  <si>
+    <t>peak3191Sgrna4Fwd</t>
+  </si>
+  <si>
+    <t>peak3191Sgrna4Rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CACCG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAATACACAAGTAATTAGCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TGCTAATTACTTGTGTATTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1510,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C50" si="0">LEN(B3)</f>
+        <f t="shared" ref="C3:C56" si="0">LEN(B3)</f>
         <v>20</v>
       </c>
       <c r="G3" t="s">
@@ -1597,100 +1733,100 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
@@ -1702,10 +1838,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -1717,10 +1853,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
@@ -1730,36 +1866,42 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
@@ -1768,10 +1910,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
@@ -1780,10 +1922,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
@@ -1792,10 +1934,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
@@ -1804,10 +1946,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
@@ -1816,10 +1958,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
@@ -1828,10 +1970,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
@@ -1840,10 +1982,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
@@ -1852,10 +1994,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
@@ -1864,10 +2006,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
@@ -1876,10 +2018,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
@@ -1888,10 +2030,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
@@ -1900,10 +2042,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
@@ -1912,10 +2054,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
@@ -1924,10 +2066,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
@@ -1936,10 +2078,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
@@ -1948,10 +2090,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
@@ -1960,10 +2102,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
@@ -1972,10 +2114,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="0"/>
@@ -1984,10 +2126,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="0"/>
@@ -1996,10 +2138,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="0"/>
@@ -2008,10 +2150,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="0"/>
@@ -2020,10 +2162,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
@@ -2032,10 +2174,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="0"/>
@@ -2044,10 +2186,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="0"/>
@@ -2056,10 +2198,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="0"/>
@@ -2068,10 +2210,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="0"/>
@@ -2080,10 +2222,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
@@ -2092,10 +2234,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="0"/>
@@ -2104,10 +2246,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="0"/>
@@ -2116,10 +2258,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="0"/>
@@ -2128,10 +2270,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="0"/>
@@ -2140,10 +2282,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="0"/>
@@ -2152,12 +2294,84 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C56" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
